--- a/7. Statistic Analysis/Results/Java/Correctness/Wilcoxon - plausible.xlsx
+++ b/7. Statistic Analysis/Results/Java/Correctness/Wilcoxon - plausible.xlsx
@@ -14,7 +14,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t xml:space="preserve"><![CDATA[Valid]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[T]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[Z]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[p-value]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[CyclomaticComplexity(CC) & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperands & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperators & EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLevel & ProgramLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement & NbOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement & NbOperators]]></t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,99 +374,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.596372" customWidth="1"/>
-    <col min="2" max="2" width="9.593605" customWidth="1"/>
+    <col min="1" max="1" width="54.552101" customWidth="1"/>
+    <col min="2" max="2" width="6.596372" customWidth="1"/>
     <col min="3" max="3" width="9.593605" customWidth="1"/>
     <col min="4" max="4" width="9.593605" customWidth="1"/>
+    <col min="5" max="5" width="9.593605" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n" s="0">
+      <c r="B1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n" s="0">
         <v>324</v>
       </c>
-      <c r="B1" t="n" s="0">
+      <c r="C2" t="n" s="0">
         <v>23139.500000</v>
       </c>
-      <c r="C1" t="n" s="0">
+      <c r="D2" t="n" s="0">
         <v>1.887760</v>
       </c>
-      <c r="D1" t="n" s="0">
+      <c r="E2" t="n" s="0">
         <v>0.059059</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n" s="0">
         <v>327</v>
       </c>
-      <c r="B2" t="n" s="0">
+      <c r="C3" t="n" s="0">
         <v>24109.500000</v>
       </c>
-      <c r="C2" t="n" s="0">
+      <c r="D3" t="n" s="0">
         <v>1.580743</v>
       </c>
-      <c r="D2" t="n" s="0">
+      <c r="E3" t="n" s="0">
         <v>0.113938</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n" s="0">
         <v>327</v>
       </c>
-      <c r="B3" t="n" s="0">
+      <c r="C4" t="n" s="0">
         <v>24883.000000</v>
       </c>
-      <c r="C3" t="n" s="0">
+      <c r="D4" t="n" s="0">
         <v>1.128643</v>
       </c>
-      <c r="D3" t="n" s="0">
+      <c r="E4" t="n" s="0">
         <v>0.259049</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n" s="0">
         <v>19</v>
       </c>
-      <c r="B4" t="n" s="0">
+      <c r="C5" t="n" s="0">
         <v>94.000000</v>
       </c>
-      <c r="C4" t="n" s="0">
+      <c r="D5" t="n" s="0">
         <v>0.040242</v>
       </c>
-      <c r="D4" t="n" s="0">
+      <c r="E5" t="n" s="0">
         <v>0.967900</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n" s="0">
         <v>327</v>
       </c>
-      <c r="B5" t="n" s="0">
+      <c r="C6" t="n" s="0">
         <v>24564.000000</v>
       </c>
-      <c r="C5" t="n" s="0">
+      <c r="D6" t="n" s="0">
         <v>1.315094</v>
       </c>
-      <c r="D5" t="n" s="0">
+      <c r="E6" t="n" s="0">
         <v>0.188479</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n" s="0">
         <v>327</v>
       </c>
-      <c r="B6" t="n" s="0">
+      <c r="C7" t="n" s="0">
         <v>24136.500000</v>
       </c>
-      <c r="C6" t="n" s="0">
+      <c r="D7" t="n" s="0">
         <v>1.564961</v>
       </c>
-      <c r="D6" t="n" s="0">
+      <c r="E7" t="n" s="0">
         <v>0.117593</v>
       </c>
     </row>
